--- a/Excel-XLSX/UN-CYP.xlsx
+++ b/Excel-XLSX/UN-CYP.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1625" uniqueCount="1625">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1629" uniqueCount="1629">
   <si>
     <t>﻿"page"</t>
   </si>
@@ -87,7 +87,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>urI631</t>
+    <t>O6BBFq</t>
   </si>
   <si>
     <t>1968</t>
@@ -4677,7 +4677,7 @@
     <t>2024</t>
   </si>
   <si>
-    <t>1301</t>
+    <t>1379</t>
   </si>
   <si>
     <t>1210</t>
@@ -4707,16 +4707,13 @@
     <t>1219</t>
   </si>
   <si>
-    <t>2499</t>
-  </si>
-  <si>
     <t>1220</t>
   </si>
   <si>
     <t>1221</t>
   </si>
   <si>
-    <t>3766</t>
+    <t>2133</t>
   </si>
   <si>
     <t>1222</t>
@@ -4725,6 +4722,9 @@
     <t>1223</t>
   </si>
   <si>
+    <t>3259</t>
+  </si>
+  <si>
     <t>1224</t>
   </si>
   <si>
@@ -4746,12 +4746,12 @@
     <t>1230</t>
   </si>
   <si>
-    <t>2599</t>
-  </si>
-  <si>
     <t>1231</t>
   </si>
   <si>
+    <t>2655</t>
+  </si>
+  <si>
     <t>1232</t>
   </si>
   <si>
@@ -4782,6 +4782,12 @@
     <t>1241</t>
   </si>
   <si>
+    <t>Israel</t>
+  </si>
+  <si>
+    <t>ISR</t>
+  </si>
+  <si>
     <t>1242</t>
   </si>
   <si>
@@ -4818,15 +4824,15 @@
     <t>1253</t>
   </si>
   <si>
-    <t>2336</t>
-  </si>
-  <si>
     <t>1254</t>
   </si>
   <si>
     <t>1255</t>
   </si>
   <si>
+    <t>1833</t>
+  </si>
+  <si>
     <t>1256</t>
   </si>
   <si>
@@ -4857,15 +4863,15 @@
     <t>1266</t>
   </si>
   <si>
-    <t>14830</t>
-  </si>
-  <si>
-    <t>14303</t>
-  </si>
-  <si>
     <t>1268</t>
   </si>
   <si>
+    <t>14571</t>
+  </si>
+  <si>
+    <t>13838</t>
+  </si>
+  <si>
     <t>1269</t>
   </si>
   <si>
@@ -4881,16 +4887,22 @@
     <t>1273</t>
   </si>
   <si>
-    <t>20407</t>
-  </si>
-  <si>
     <t>1274</t>
   </si>
   <si>
     <t>1275</t>
   </si>
   <si>
+    <t>21875</t>
+  </si>
+  <si>
     <t>1276</t>
+  </si>
+  <si>
+    <t>1277</t>
+  </si>
+  <si>
+    <t>1278</t>
   </si>
 </sst>
 </file>
@@ -5275,7 +5287,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V1277"/>
+  <dimension ref="A1:V1279"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -87536,7 +87548,7 @@
         <v>30</v>
       </c>
       <c r="N1210" s="2" t="s">
-        <v>565</v>
+        <v>597</v>
       </c>
       <c r="O1210" s="2" t="s">
         <v>1553</v>
@@ -87675,7 +87687,7 @@
         <v>32</v>
       </c>
       <c r="O1212" s="2" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="P1212" s="2" t="s">
         <v>32</v>
@@ -87740,10 +87752,10 @@
         <v>30</v>
       </c>
       <c r="N1213" s="2" t="s">
-        <v>334</v>
+        <v>344</v>
       </c>
       <c r="O1213" s="2" t="s">
-        <v>301</v>
+        <v>279</v>
       </c>
       <c r="P1213" s="2" t="s">
         <v>32</v>
@@ -87808,10 +87820,10 @@
         <v>30</v>
       </c>
       <c r="N1214" s="2" t="s">
-        <v>103</v>
+        <v>115</v>
       </c>
       <c r="O1214" s="2" t="s">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="P1214" s="2" t="s">
         <v>32</v>
@@ -87852,16 +87864,16 @@
         <v>1552</v>
       </c>
       <c r="F1215" s="2" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="G1215" s="1" t="s">
-        <v>1233</v>
+        <v>206</v>
       </c>
       <c r="H1215" s="1" t="s">
-        <v>1234</v>
+        <v>207</v>
       </c>
       <c r="I1215" s="1" t="s">
-        <v>1234</v>
+        <v>207</v>
       </c>
       <c r="J1215" s="2" t="s">
         <v>28</v>
@@ -87879,7 +87891,7 @@
         <v>40</v>
       </c>
       <c r="O1215" s="2" t="s">
-        <v>237</v>
+        <v>32</v>
       </c>
       <c r="P1215" s="2" t="s">
         <v>32</v>
@@ -87920,16 +87932,16 @@
         <v>1552</v>
       </c>
       <c r="F1216" s="2" t="s">
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="G1216" s="1" t="s">
-        <v>209</v>
+        <v>1233</v>
       </c>
       <c r="H1216" s="1" t="s">
-        <v>210</v>
+        <v>1234</v>
       </c>
       <c r="I1216" s="1" t="s">
-        <v>210</v>
+        <v>1234</v>
       </c>
       <c r="J1216" s="2" t="s">
         <v>28</v>
@@ -87944,10 +87956,10 @@
         <v>30</v>
       </c>
       <c r="N1216" s="2" t="s">
-        <v>74</v>
+        <v>40</v>
       </c>
       <c r="O1216" s="2" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="P1216" s="2" t="s">
         <v>32</v>
@@ -87988,16 +88000,16 @@
         <v>1552</v>
       </c>
       <c r="F1217" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="G1217" s="1" t="s">
-        <v>90</v>
+        <v>209</v>
       </c>
       <c r="H1217" s="1" t="s">
-        <v>91</v>
+        <v>210</v>
       </c>
       <c r="I1217" s="1" t="s">
-        <v>92</v>
+        <v>210</v>
       </c>
       <c r="J1217" s="2" t="s">
         <v>28</v>
@@ -88012,10 +88024,10 @@
         <v>30</v>
       </c>
       <c r="N1217" s="2" t="s">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="O1217" s="2" t="s">
-        <v>32</v>
+        <v>177</v>
       </c>
       <c r="P1217" s="2" t="s">
         <v>32</v>
@@ -88056,16 +88068,16 @@
         <v>1552</v>
       </c>
       <c r="F1218" s="2" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="G1218" s="1" t="s">
-        <v>1311</v>
+        <v>298</v>
       </c>
       <c r="H1218" s="1" t="s">
-        <v>1312</v>
+        <v>299</v>
       </c>
       <c r="I1218" s="1" t="s">
-        <v>1313</v>
+        <v>299</v>
       </c>
       <c r="J1218" s="2" t="s">
         <v>28</v>
@@ -88080,10 +88092,10 @@
         <v>30</v>
       </c>
       <c r="N1218" s="2" t="s">
-        <v>32</v>
+        <v>104</v>
       </c>
       <c r="O1218" s="2" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="P1218" s="2" t="s">
         <v>32</v>
@@ -88124,16 +88136,16 @@
         <v>1552</v>
       </c>
       <c r="F1219" s="2" t="s">
-        <v>119</v>
+        <v>89</v>
       </c>
       <c r="G1219" s="1" t="s">
-        <v>266</v>
+        <v>90</v>
       </c>
       <c r="H1219" s="1" t="s">
-        <v>267</v>
+        <v>91</v>
       </c>
       <c r="I1219" s="1" t="s">
-        <v>268</v>
+        <v>92</v>
       </c>
       <c r="J1219" s="2" t="s">
         <v>28</v>
@@ -88148,10 +88160,10 @@
         <v>30</v>
       </c>
       <c r="N1219" s="2" t="s">
-        <v>40</v>
+        <v>74</v>
       </c>
       <c r="O1219" s="2" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="P1219" s="2" t="s">
         <v>32</v>
@@ -88192,16 +88204,16 @@
         <v>1552</v>
       </c>
       <c r="F1220" s="2" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="G1220" s="1" t="s">
-        <v>213</v>
+        <v>1311</v>
       </c>
       <c r="H1220" s="1" t="s">
-        <v>214</v>
+        <v>1312</v>
       </c>
       <c r="I1220" s="1" t="s">
-        <v>214</v>
+        <v>1313</v>
       </c>
       <c r="J1220" s="2" t="s">
         <v>28</v>
@@ -88216,10 +88228,10 @@
         <v>30</v>
       </c>
       <c r="N1220" s="2" t="s">
-        <v>704</v>
+        <v>40</v>
       </c>
       <c r="O1220" s="2" t="s">
-        <v>1563</v>
+        <v>40</v>
       </c>
       <c r="P1220" s="2" t="s">
         <v>32</v>
@@ -88254,22 +88266,22 @@
         <v>22</v>
       </c>
       <c r="D1221" s="2" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
       <c r="E1221" s="2" t="s">
         <v>1552</v>
       </c>
       <c r="F1221" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="G1221" s="1" t="s">
-        <v>1001</v>
+        <v>266</v>
       </c>
       <c r="H1221" s="1" t="s">
-        <v>1002</v>
+        <v>267</v>
       </c>
       <c r="I1221" s="1" t="s">
-        <v>1003</v>
+        <v>268</v>
       </c>
       <c r="J1221" s="2" t="s">
         <v>28</v>
@@ -88284,10 +88296,10 @@
         <v>30</v>
       </c>
       <c r="N1221" s="2" t="s">
-        <v>84</v>
+        <v>40</v>
       </c>
       <c r="O1221" s="2" t="s">
-        <v>329</v>
+        <v>40</v>
       </c>
       <c r="P1221" s="2" t="s">
         <v>32</v>
@@ -88322,22 +88334,22 @@
         <v>22</v>
       </c>
       <c r="D1222" s="2" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
       <c r="E1222" s="2" t="s">
         <v>1552</v>
       </c>
       <c r="F1222" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G1222" s="1" t="s">
-        <v>349</v>
+        <v>213</v>
       </c>
       <c r="H1222" s="1" t="s">
-        <v>350</v>
+        <v>214</v>
       </c>
       <c r="I1222" s="1" t="s">
-        <v>350</v>
+        <v>214</v>
       </c>
       <c r="J1222" s="2" t="s">
         <v>28</v>
@@ -88352,10 +88364,10 @@
         <v>30</v>
       </c>
       <c r="N1222" s="2" t="s">
-        <v>182</v>
+        <v>821</v>
       </c>
       <c r="O1222" s="2" t="s">
-        <v>1566</v>
+        <v>1565</v>
       </c>
       <c r="P1222" s="2" t="s">
         <v>32</v>
@@ -88390,22 +88402,22 @@
         <v>22</v>
       </c>
       <c r="D1223" s="2" t="s">
-        <v>1567</v>
+        <v>1566</v>
       </c>
       <c r="E1223" s="2" t="s">
         <v>1552</v>
       </c>
       <c r="F1223" s="2" t="s">
-        <v>93</v>
+        <v>123</v>
       </c>
       <c r="G1223" s="1" t="s">
-        <v>818</v>
+        <v>1001</v>
       </c>
       <c r="H1223" s="1" t="s">
-        <v>819</v>
+        <v>1002</v>
       </c>
       <c r="I1223" s="1" t="s">
-        <v>820</v>
+        <v>1003</v>
       </c>
       <c r="J1223" s="2" t="s">
         <v>28</v>
@@ -88420,10 +88432,10 @@
         <v>30</v>
       </c>
       <c r="N1223" s="2" t="s">
-        <v>32</v>
+        <v>97</v>
       </c>
       <c r="O1223" s="2" t="s">
-        <v>48</v>
+        <v>293</v>
       </c>
       <c r="P1223" s="2" t="s">
         <v>32</v>
@@ -88458,22 +88470,22 @@
         <v>22</v>
       </c>
       <c r="D1224" s="2" t="s">
-        <v>1568</v>
+        <v>1567</v>
       </c>
       <c r="E1224" s="2" t="s">
         <v>1552</v>
       </c>
       <c r="F1224" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G1224" s="1" t="s">
-        <v>1409</v>
+        <v>349</v>
       </c>
       <c r="H1224" s="1" t="s">
-        <v>1410</v>
+        <v>350</v>
       </c>
       <c r="I1224" s="1" t="s">
-        <v>1410</v>
+        <v>350</v>
       </c>
       <c r="J1224" s="2" t="s">
         <v>28</v>
@@ -88488,10 +88500,10 @@
         <v>30</v>
       </c>
       <c r="N1224" s="2" t="s">
-        <v>32</v>
+        <v>138</v>
       </c>
       <c r="O1224" s="2" t="s">
-        <v>40</v>
+        <v>1568</v>
       </c>
       <c r="P1224" s="2" t="s">
         <v>32</v>
@@ -88532,16 +88544,16 @@
         <v>1552</v>
       </c>
       <c r="F1225" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G1225" s="1" t="s">
-        <v>771</v>
+        <v>1409</v>
       </c>
       <c r="H1225" s="1" t="s">
-        <v>772</v>
+        <v>1410</v>
       </c>
       <c r="I1225" s="1" t="s">
-        <v>772</v>
+        <v>1410</v>
       </c>
       <c r="J1225" s="2" t="s">
         <v>28</v>
@@ -88556,10 +88568,10 @@
         <v>30</v>
       </c>
       <c r="N1225" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1225" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="O1225" s="2" t="s">
-        <v>32</v>
       </c>
       <c r="P1225" s="2" t="s">
         <v>32</v>
@@ -88600,16 +88612,16 @@
         <v>1552</v>
       </c>
       <c r="F1226" s="2" t="s">
-        <v>101</v>
+        <v>128</v>
       </c>
       <c r="G1226" s="1" t="s">
-        <v>1321</v>
+        <v>771</v>
       </c>
       <c r="H1226" s="1" t="s">
-        <v>1322</v>
+        <v>772</v>
       </c>
       <c r="I1226" s="1" t="s">
-        <v>1323</v>
+        <v>772</v>
       </c>
       <c r="J1226" s="2" t="s">
         <v>28</v>
@@ -88627,7 +88639,7 @@
         <v>40</v>
       </c>
       <c r="O1226" s="2" t="s">
-        <v>74</v>
+        <v>32</v>
       </c>
       <c r="P1226" s="2" t="s">
         <v>32</v>
@@ -88668,16 +88680,16 @@
         <v>1552</v>
       </c>
       <c r="F1227" s="2" t="s">
-        <v>150</v>
+        <v>101</v>
       </c>
       <c r="G1227" s="1" t="s">
-        <v>1006</v>
+        <v>1321</v>
       </c>
       <c r="H1227" s="1" t="s">
-        <v>1007</v>
+        <v>1322</v>
       </c>
       <c r="I1227" s="1" t="s">
-        <v>1007</v>
+        <v>1323</v>
       </c>
       <c r="J1227" s="2" t="s">
         <v>28</v>
@@ -88692,10 +88704,10 @@
         <v>30</v>
       </c>
       <c r="N1227" s="2" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="O1227" s="2" t="s">
-        <v>40</v>
+        <v>78</v>
       </c>
       <c r="P1227" s="2" t="s">
         <v>32</v>
@@ -88736,16 +88748,16 @@
         <v>1552</v>
       </c>
       <c r="F1228" s="2" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="G1228" s="1" t="s">
-        <v>417</v>
+        <v>1006</v>
       </c>
       <c r="H1228" s="1" t="s">
-        <v>418</v>
+        <v>1007</v>
       </c>
       <c r="I1228" s="1" t="s">
-        <v>419</v>
+        <v>1007</v>
       </c>
       <c r="J1228" s="2" t="s">
         <v>28</v>
@@ -88760,10 +88772,10 @@
         <v>30</v>
       </c>
       <c r="N1228" s="2" t="s">
-        <v>153</v>
+        <v>32</v>
       </c>
       <c r="O1228" s="2" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="P1228" s="2" t="s">
         <v>32</v>
@@ -88804,16 +88816,16 @@
         <v>1552</v>
       </c>
       <c r="F1229" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="G1229" s="1" t="s">
-        <v>352</v>
+        <v>417</v>
       </c>
       <c r="H1229" s="1" t="s">
-        <v>353</v>
+        <v>418</v>
       </c>
       <c r="I1229" s="1" t="s">
-        <v>353</v>
+        <v>419</v>
       </c>
       <c r="J1229" s="2" t="s">
         <v>28</v>
@@ -88828,10 +88840,10 @@
         <v>30</v>
       </c>
       <c r="N1229" s="2" t="s">
-        <v>69</v>
+        <v>152</v>
       </c>
       <c r="O1229" s="2" t="s">
-        <v>103</v>
+        <v>32</v>
       </c>
       <c r="P1229" s="2" t="s">
         <v>32</v>
@@ -88872,16 +88884,16 @@
         <v>1552</v>
       </c>
       <c r="F1230" s="2" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
       <c r="G1230" s="1" t="s">
-        <v>1010</v>
+        <v>352</v>
       </c>
       <c r="H1230" s="1" t="s">
-        <v>1011</v>
+        <v>353</v>
       </c>
       <c r="I1230" s="1" t="s">
-        <v>1012</v>
+        <v>353</v>
       </c>
       <c r="J1230" s="2" t="s">
         <v>28</v>
@@ -88896,10 +88908,10 @@
         <v>30</v>
       </c>
       <c r="N1230" s="2" t="s">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="O1230" s="2" t="s">
-        <v>113</v>
+        <v>84</v>
       </c>
       <c r="P1230" s="2" t="s">
         <v>32</v>
@@ -88940,16 +88952,16 @@
         <v>1552</v>
       </c>
       <c r="F1231" s="2" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="G1231" s="1" t="s">
-        <v>167</v>
+        <v>1010</v>
       </c>
       <c r="H1231" s="1" t="s">
-        <v>168</v>
+        <v>1011</v>
       </c>
       <c r="I1231" s="1" t="s">
-        <v>169</v>
+        <v>1012</v>
       </c>
       <c r="J1231" s="2" t="s">
         <v>28</v>
@@ -88964,10 +88976,10 @@
         <v>30</v>
       </c>
       <c r="N1231" s="2" t="s">
-        <v>1576</v>
+        <v>61</v>
       </c>
       <c r="O1231" s="2" t="s">
-        <v>280</v>
+        <v>98</v>
       </c>
       <c r="P1231" s="2" t="s">
         <v>32</v>
@@ -89002,22 +89014,22 @@
         <v>22</v>
       </c>
       <c r="D1232" s="2" t="s">
-        <v>1577</v>
+        <v>1576</v>
       </c>
       <c r="E1232" s="2" t="s">
         <v>1552</v>
       </c>
       <c r="F1232" s="2" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
       <c r="G1232" s="1" t="s">
-        <v>217</v>
+        <v>167</v>
       </c>
       <c r="H1232" s="1" t="s">
-        <v>218</v>
+        <v>168</v>
       </c>
       <c r="I1232" s="1" t="s">
-        <v>218</v>
+        <v>169</v>
       </c>
       <c r="J1232" s="2" t="s">
         <v>28</v>
@@ -89032,10 +89044,10 @@
         <v>30</v>
       </c>
       <c r="N1232" s="2" t="s">
-        <v>211</v>
+        <v>1577</v>
       </c>
       <c r="O1232" s="2" t="s">
-        <v>115</v>
+        <v>320</v>
       </c>
       <c r="P1232" s="2" t="s">
         <v>32</v>
@@ -89076,16 +89088,16 @@
         <v>1552</v>
       </c>
       <c r="F1233" s="2" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="G1233" s="1" t="s">
-        <v>358</v>
+        <v>217</v>
       </c>
       <c r="H1233" s="1" t="s">
-        <v>359</v>
+        <v>218</v>
       </c>
       <c r="I1233" s="1" t="s">
-        <v>359</v>
+        <v>218</v>
       </c>
       <c r="J1233" s="2" t="s">
         <v>28</v>
@@ -89100,10 +89112,10 @@
         <v>30</v>
       </c>
       <c r="N1233" s="2" t="s">
-        <v>40</v>
+        <v>229</v>
       </c>
       <c r="O1233" s="2" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="P1233" s="2" t="s">
         <v>32</v>
@@ -89144,16 +89156,16 @@
         <v>1552</v>
       </c>
       <c r="F1234" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G1234" s="1" t="s">
-        <v>1335</v>
+        <v>358</v>
       </c>
       <c r="H1234" s="1" t="s">
-        <v>1336</v>
+        <v>359</v>
       </c>
       <c r="I1234" s="1" t="s">
-        <v>1336</v>
+        <v>359</v>
       </c>
       <c r="J1234" s="2" t="s">
         <v>28</v>
@@ -89168,10 +89180,10 @@
         <v>30</v>
       </c>
       <c r="N1234" s="2" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="O1234" s="2" t="s">
-        <v>40</v>
+        <v>104</v>
       </c>
       <c r="P1234" s="2" t="s">
         <v>32</v>
@@ -89212,16 +89224,16 @@
         <v>1552</v>
       </c>
       <c r="F1235" s="2" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="G1235" s="1" t="s">
-        <v>560</v>
+        <v>1335</v>
       </c>
       <c r="H1235" s="1" t="s">
-        <v>561</v>
+        <v>1336</v>
       </c>
       <c r="I1235" s="1" t="s">
-        <v>562</v>
+        <v>1336</v>
       </c>
       <c r="J1235" s="2" t="s">
         <v>28</v>
@@ -89236,10 +89248,10 @@
         <v>30</v>
       </c>
       <c r="N1235" s="2" t="s">
-        <v>89</v>
+        <v>32</v>
       </c>
       <c r="O1235" s="2" t="s">
-        <v>688</v>
+        <v>40</v>
       </c>
       <c r="P1235" s="2" t="s">
         <v>32</v>
@@ -89280,16 +89292,16 @@
         <v>1552</v>
       </c>
       <c r="F1236" s="2" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="G1236" s="1" t="s">
-        <v>1181</v>
+        <v>560</v>
       </c>
       <c r="H1236" s="1" t="s">
-        <v>1182</v>
+        <v>561</v>
       </c>
       <c r="I1236" s="1" t="s">
-        <v>1183</v>
+        <v>562</v>
       </c>
       <c r="J1236" s="2" t="s">
         <v>28</v>
@@ -89304,10 +89316,10 @@
         <v>30</v>
       </c>
       <c r="N1236" s="2" t="s">
-        <v>32</v>
+        <v>127</v>
       </c>
       <c r="O1236" s="2" t="s">
-        <v>74</v>
+        <v>648</v>
       </c>
       <c r="P1236" s="2" t="s">
         <v>32</v>
@@ -89348,16 +89360,16 @@
         <v>1552</v>
       </c>
       <c r="F1237" s="2" t="s">
-        <v>215</v>
+        <v>200</v>
       </c>
       <c r="G1237" s="1" t="s">
-        <v>305</v>
+        <v>1181</v>
       </c>
       <c r="H1237" s="1" t="s">
-        <v>306</v>
+        <v>1182</v>
       </c>
       <c r="I1237" s="1" t="s">
-        <v>307</v>
+        <v>1183</v>
       </c>
       <c r="J1237" s="2" t="s">
         <v>28</v>
@@ -89372,10 +89384,10 @@
         <v>30</v>
       </c>
       <c r="N1237" s="2" t="s">
-        <v>78</v>
+        <v>32</v>
       </c>
       <c r="O1237" s="2" t="s">
-        <v>165</v>
+        <v>69</v>
       </c>
       <c r="P1237" s="2" t="s">
         <v>32</v>
@@ -89416,16 +89428,16 @@
         <v>1552</v>
       </c>
       <c r="F1238" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G1238" s="1" t="s">
-        <v>223</v>
+        <v>305</v>
       </c>
       <c r="H1238" s="1" t="s">
-        <v>224</v>
+        <v>306</v>
       </c>
       <c r="I1238" s="1" t="s">
-        <v>224</v>
+        <v>307</v>
       </c>
       <c r="J1238" s="2" t="s">
         <v>28</v>
@@ -89440,10 +89452,10 @@
         <v>30</v>
       </c>
       <c r="N1238" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="O1238" s="2" t="s">
-        <v>50</v>
+        <v>77</v>
       </c>
       <c r="P1238" s="2" t="s">
         <v>32</v>
@@ -89484,16 +89496,16 @@
         <v>1552</v>
       </c>
       <c r="F1239" s="2" t="s">
-        <v>57</v>
+        <v>216</v>
       </c>
       <c r="G1239" s="1" t="s">
-        <v>58</v>
+        <v>223</v>
       </c>
       <c r="H1239" s="1" t="s">
-        <v>59</v>
+        <v>224</v>
       </c>
       <c r="I1239" s="1" t="s">
-        <v>59</v>
+        <v>224</v>
       </c>
       <c r="J1239" s="2" t="s">
         <v>28</v>
@@ -89508,10 +89520,10 @@
         <v>30</v>
       </c>
       <c r="N1239" s="2" t="s">
-        <v>1077</v>
+        <v>76</v>
       </c>
       <c r="O1239" s="2" t="s">
-        <v>945</v>
+        <v>193</v>
       </c>
       <c r="P1239" s="2" t="s">
         <v>32</v>
@@ -89552,16 +89564,16 @@
         <v>1552</v>
       </c>
       <c r="F1240" s="2" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="G1240" s="1" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="H1240" s="1" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="I1240" s="1" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="J1240" s="2" t="s">
         <v>28</v>
@@ -89576,10 +89588,10 @@
         <v>30</v>
       </c>
       <c r="N1240" s="2" t="s">
-        <v>1494</v>
+        <v>1145</v>
       </c>
       <c r="O1240" s="2" t="s">
-        <v>605</v>
+        <v>1036</v>
       </c>
       <c r="P1240" s="2" t="s">
         <v>32</v>
@@ -89620,16 +89632,16 @@
         <v>1552</v>
       </c>
       <c r="F1241" s="2" t="s">
-        <v>174</v>
+        <v>71</v>
       </c>
       <c r="G1241" s="1" t="s">
-        <v>175</v>
+        <v>72</v>
       </c>
       <c r="H1241" s="1" t="s">
-        <v>176</v>
+        <v>73</v>
       </c>
       <c r="I1241" s="1" t="s">
-        <v>176</v>
+        <v>73</v>
       </c>
       <c r="J1241" s="2" t="s">
         <v>28</v>
@@ -89644,10 +89656,10 @@
         <v>30</v>
       </c>
       <c r="N1241" s="2" t="s">
-        <v>166</v>
+        <v>1571</v>
       </c>
       <c r="O1241" s="2" t="s">
-        <v>155</v>
+        <v>554</v>
       </c>
       <c r="P1241" s="2" t="s">
         <v>32</v>
@@ -89688,16 +89700,16 @@
         <v>1552</v>
       </c>
       <c r="F1242" s="2" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="G1242" s="1" t="s">
-        <v>314</v>
+        <v>1588</v>
       </c>
       <c r="H1242" s="1" t="s">
-        <v>315</v>
+        <v>1589</v>
       </c>
       <c r="I1242" s="1" t="s">
-        <v>315</v>
+        <v>1589</v>
       </c>
       <c r="J1242" s="2" t="s">
         <v>28</v>
@@ -89712,7 +89724,7 @@
         <v>30</v>
       </c>
       <c r="N1242" s="2" t="s">
-        <v>40</v>
+        <v>101</v>
       </c>
       <c r="O1242" s="2" t="s">
         <v>32</v>
@@ -89750,22 +89762,22 @@
         <v>22</v>
       </c>
       <c r="D1243" s="2" t="s">
-        <v>1588</v>
+        <v>1590</v>
       </c>
       <c r="E1243" s="2" t="s">
         <v>1552</v>
       </c>
       <c r="F1243" s="2" t="s">
-        <v>226</v>
+        <v>174</v>
       </c>
       <c r="G1243" s="1" t="s">
-        <v>437</v>
+        <v>175</v>
       </c>
       <c r="H1243" s="1" t="s">
-        <v>438</v>
+        <v>176</v>
       </c>
       <c r="I1243" s="1" t="s">
-        <v>438</v>
+        <v>176</v>
       </c>
       <c r="J1243" s="2" t="s">
         <v>28</v>
@@ -89780,10 +89792,10 @@
         <v>30</v>
       </c>
       <c r="N1243" s="2" t="s">
-        <v>32</v>
+        <v>196</v>
       </c>
       <c r="O1243" s="2" t="s">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="P1243" s="2" t="s">
         <v>32</v>
@@ -89818,22 +89830,22 @@
         <v>22</v>
       </c>
       <c r="D1244" s="2" t="s">
-        <v>1589</v>
+        <v>1591</v>
       </c>
       <c r="E1244" s="2" t="s">
         <v>1552</v>
       </c>
       <c r="F1244" s="2" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="G1244" s="1" t="s">
-        <v>230</v>
+        <v>314</v>
       </c>
       <c r="H1244" s="1" t="s">
-        <v>231</v>
+        <v>315</v>
       </c>
       <c r="I1244" s="1" t="s">
-        <v>231</v>
+        <v>315</v>
       </c>
       <c r="J1244" s="2" t="s">
         <v>28</v>
@@ -89848,10 +89860,10 @@
         <v>30</v>
       </c>
       <c r="N1244" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="O1244" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="O1244" s="2" t="s">
-        <v>32</v>
       </c>
       <c r="P1244" s="2" t="s">
         <v>32</v>
@@ -89886,22 +89898,22 @@
         <v>22</v>
       </c>
       <c r="D1245" s="2" t="s">
-        <v>1590</v>
+        <v>1592</v>
       </c>
       <c r="E1245" s="2" t="s">
         <v>1552</v>
       </c>
       <c r="F1245" s="2" t="s">
-        <v>250</v>
+        <v>226</v>
       </c>
       <c r="G1245" s="1" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="H1245" s="1" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="I1245" s="1" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="J1245" s="2" t="s">
         <v>28</v>
@@ -89916,10 +89928,10 @@
         <v>30</v>
       </c>
       <c r="N1245" s="2" t="s">
-        <v>85</v>
+        <v>32</v>
       </c>
       <c r="O1245" s="2" t="s">
-        <v>481</v>
+        <v>25</v>
       </c>
       <c r="P1245" s="2" t="s">
         <v>32</v>
@@ -89954,22 +89966,22 @@
         <v>22</v>
       </c>
       <c r="D1246" s="2" t="s">
-        <v>1591</v>
+        <v>1593</v>
       </c>
       <c r="E1246" s="2" t="s">
         <v>1552</v>
       </c>
       <c r="F1246" s="2" t="s">
-        <v>116</v>
+        <v>229</v>
       </c>
       <c r="G1246" s="1" t="s">
-        <v>117</v>
+        <v>230</v>
       </c>
       <c r="H1246" s="1" t="s">
-        <v>118</v>
+        <v>231</v>
       </c>
       <c r="I1246" s="1" t="s">
-        <v>118</v>
+        <v>231</v>
       </c>
       <c r="J1246" s="2" t="s">
         <v>28</v>
@@ -89984,7 +89996,7 @@
         <v>30</v>
       </c>
       <c r="N1246" s="2" t="s">
-        <v>76</v>
+        <v>40</v>
       </c>
       <c r="O1246" s="2" t="s">
         <v>32</v>
@@ -90022,22 +90034,22 @@
         <v>22</v>
       </c>
       <c r="D1247" s="2" t="s">
-        <v>1592</v>
+        <v>1594</v>
       </c>
       <c r="E1247" s="2" t="s">
         <v>1552</v>
       </c>
       <c r="F1247" s="2" t="s">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="G1247" s="1" t="s">
-        <v>51</v>
+        <v>441</v>
       </c>
       <c r="H1247" s="1" t="s">
-        <v>52</v>
+        <v>442</v>
       </c>
       <c r="I1247" s="1" t="s">
-        <v>53</v>
+        <v>442</v>
       </c>
       <c r="J1247" s="2" t="s">
         <v>28</v>
@@ -90052,10 +90064,10 @@
         <v>30</v>
       </c>
       <c r="N1247" s="2" t="s">
-        <v>185</v>
+        <v>98</v>
       </c>
       <c r="O1247" s="2" t="s">
-        <v>163</v>
+        <v>534</v>
       </c>
       <c r="P1247" s="2" t="s">
         <v>32</v>
@@ -90090,22 +90102,22 @@
         <v>22</v>
       </c>
       <c r="D1248" s="2" t="s">
-        <v>1593</v>
+        <v>1595</v>
       </c>
       <c r="E1248" s="2" t="s">
         <v>1552</v>
       </c>
       <c r="F1248" s="2" t="s">
-        <v>178</v>
+        <v>116</v>
       </c>
       <c r="G1248" s="1" t="s">
-        <v>179</v>
+        <v>117</v>
       </c>
       <c r="H1248" s="1" t="s">
-        <v>180</v>
+        <v>118</v>
       </c>
       <c r="I1248" s="1" t="s">
-        <v>180</v>
+        <v>118</v>
       </c>
       <c r="J1248" s="2" t="s">
         <v>28</v>
@@ -90120,10 +90132,10 @@
         <v>30</v>
       </c>
       <c r="N1248" s="2" t="s">
-        <v>110</v>
+        <v>76</v>
       </c>
       <c r="O1248" s="2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="P1248" s="2" t="s">
         <v>32</v>
@@ -90158,22 +90170,22 @@
         <v>22</v>
       </c>
       <c r="D1249" s="2" t="s">
-        <v>1594</v>
+        <v>1596</v>
       </c>
       <c r="E1249" s="2" t="s">
         <v>1552</v>
       </c>
       <c r="F1249" s="2" t="s">
-        <v>234</v>
+        <v>50</v>
       </c>
       <c r="G1249" s="1" t="s">
-        <v>235</v>
+        <v>51</v>
       </c>
       <c r="H1249" s="1" t="s">
-        <v>236</v>
+        <v>52</v>
       </c>
       <c r="I1249" s="1" t="s">
-        <v>236</v>
+        <v>53</v>
       </c>
       <c r="J1249" s="2" t="s">
         <v>28</v>
@@ -90188,10 +90200,10 @@
         <v>30</v>
       </c>
       <c r="N1249" s="2" t="s">
-        <v>85</v>
+        <v>212</v>
       </c>
       <c r="O1249" s="2" t="s">
-        <v>45</v>
+        <v>227</v>
       </c>
       <c r="P1249" s="2" t="s">
         <v>32</v>
@@ -90226,22 +90238,22 @@
         <v>22</v>
       </c>
       <c r="D1250" s="2" t="s">
-        <v>1595</v>
+        <v>1597</v>
       </c>
       <c r="E1250" s="2" t="s">
         <v>1552</v>
       </c>
       <c r="F1250" s="2" t="s">
-        <v>279</v>
+        <v>178</v>
       </c>
       <c r="G1250" s="1" t="s">
-        <v>684</v>
+        <v>179</v>
       </c>
       <c r="H1250" s="1" t="s">
-        <v>685</v>
+        <v>180</v>
       </c>
       <c r="I1250" s="1" t="s">
-        <v>685</v>
+        <v>180</v>
       </c>
       <c r="J1250" s="2" t="s">
         <v>28</v>
@@ -90256,10 +90268,10 @@
         <v>30</v>
       </c>
       <c r="N1250" s="2" t="s">
-        <v>40</v>
+        <v>110</v>
       </c>
       <c r="O1250" s="2" t="s">
-        <v>70</v>
+        <v>120</v>
       </c>
       <c r="P1250" s="2" t="s">
         <v>32</v>
@@ -90294,22 +90306,22 @@
         <v>22</v>
       </c>
       <c r="D1251" s="2" t="s">
-        <v>1596</v>
+        <v>1598</v>
       </c>
       <c r="E1251" s="2" t="s">
         <v>1552</v>
       </c>
       <c r="F1251" s="2" t="s">
-        <v>282</v>
+        <v>234</v>
       </c>
       <c r="G1251" s="1" t="s">
-        <v>321</v>
+        <v>235</v>
       </c>
       <c r="H1251" s="1" t="s">
-        <v>322</v>
+        <v>236</v>
       </c>
       <c r="I1251" s="1" t="s">
-        <v>322</v>
+        <v>236</v>
       </c>
       <c r="J1251" s="2" t="s">
         <v>28</v>
@@ -90324,10 +90336,10 @@
         <v>30</v>
       </c>
       <c r="N1251" s="2" t="s">
-        <v>32</v>
+        <v>111</v>
       </c>
       <c r="O1251" s="2" t="s">
-        <v>97</v>
+        <v>32</v>
       </c>
       <c r="P1251" s="2" t="s">
         <v>32</v>
@@ -90362,22 +90374,22 @@
         <v>22</v>
       </c>
       <c r="D1252" s="2" t="s">
-        <v>1597</v>
+        <v>1599</v>
       </c>
       <c r="E1252" s="2" t="s">
         <v>1552</v>
       </c>
       <c r="F1252" s="2" t="s">
-        <v>243</v>
+        <v>279</v>
       </c>
       <c r="G1252" s="1" t="s">
-        <v>324</v>
+        <v>684</v>
       </c>
       <c r="H1252" s="1" t="s">
-        <v>325</v>
+        <v>685</v>
       </c>
       <c r="I1252" s="1" t="s">
-        <v>326</v>
+        <v>685</v>
       </c>
       <c r="J1252" s="2" t="s">
         <v>28</v>
@@ -90392,10 +90404,10 @@
         <v>30</v>
       </c>
       <c r="N1252" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="O1252" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="P1252" s="2" t="s">
         <v>32</v>
@@ -90430,22 +90442,22 @@
         <v>22</v>
       </c>
       <c r="D1253" s="2" t="s">
-        <v>1598</v>
+        <v>1600</v>
       </c>
       <c r="E1253" s="2" t="s">
         <v>1552</v>
       </c>
       <c r="F1253" s="2" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="G1253" s="1" t="s">
-        <v>376</v>
+        <v>321</v>
       </c>
       <c r="H1253" s="1" t="s">
-        <v>377</v>
+        <v>322</v>
       </c>
       <c r="I1253" s="1" t="s">
-        <v>378</v>
+        <v>322</v>
       </c>
       <c r="J1253" s="2" t="s">
         <v>28</v>
@@ -90463,7 +90475,7 @@
         <v>32</v>
       </c>
       <c r="O1253" s="2" t="s">
-        <v>71</v>
+        <v>94</v>
       </c>
       <c r="P1253" s="2" t="s">
         <v>32</v>
@@ -90498,22 +90510,22 @@
         <v>22</v>
       </c>
       <c r="D1254" s="2" t="s">
-        <v>1599</v>
+        <v>1601</v>
       </c>
       <c r="E1254" s="2" t="s">
         <v>1552</v>
       </c>
       <c r="F1254" s="2" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="G1254" s="1" t="s">
-        <v>239</v>
+        <v>324</v>
       </c>
       <c r="H1254" s="1" t="s">
-        <v>240</v>
+        <v>325</v>
       </c>
       <c r="I1254" s="1" t="s">
-        <v>241</v>
+        <v>326</v>
       </c>
       <c r="J1254" s="2" t="s">
         <v>28</v>
@@ -90528,10 +90540,10 @@
         <v>30</v>
       </c>
       <c r="N1254" s="2" t="s">
-        <v>269</v>
+        <v>40</v>
       </c>
       <c r="O1254" s="2" t="s">
-        <v>1600</v>
+        <v>70</v>
       </c>
       <c r="P1254" s="2" t="s">
         <v>32</v>
@@ -90566,22 +90578,22 @@
         <v>22</v>
       </c>
       <c r="D1255" s="2" t="s">
-        <v>1601</v>
+        <v>1602</v>
       </c>
       <c r="E1255" s="2" t="s">
         <v>1552</v>
       </c>
       <c r="F1255" s="2" t="s">
-        <v>182</v>
+        <v>291</v>
       </c>
       <c r="G1255" s="1" t="s">
-        <v>183</v>
+        <v>376</v>
       </c>
       <c r="H1255" s="1" t="s">
-        <v>184</v>
+        <v>377</v>
       </c>
       <c r="I1255" s="1" t="s">
-        <v>184</v>
+        <v>378</v>
       </c>
       <c r="J1255" s="2" t="s">
         <v>28</v>
@@ -90596,10 +90608,10 @@
         <v>30</v>
       </c>
       <c r="N1255" s="2" t="s">
-        <v>128</v>
+        <v>32</v>
       </c>
       <c r="O1255" s="2" t="s">
-        <v>367</v>
+        <v>150</v>
       </c>
       <c r="P1255" s="2" t="s">
         <v>32</v>
@@ -90634,22 +90646,22 @@
         <v>22</v>
       </c>
       <c r="D1256" s="2" t="s">
-        <v>1602</v>
+        <v>1603</v>
       </c>
       <c r="E1256" s="2" t="s">
         <v>1552</v>
       </c>
       <c r="F1256" s="2" t="s">
-        <v>312</v>
+        <v>238</v>
       </c>
       <c r="G1256" s="1" t="s">
-        <v>382</v>
+        <v>239</v>
       </c>
       <c r="H1256" s="1" t="s">
-        <v>383</v>
+        <v>240</v>
       </c>
       <c r="I1256" s="1" t="s">
-        <v>384</v>
+        <v>241</v>
       </c>
       <c r="J1256" s="2" t="s">
         <v>28</v>
@@ -90664,10 +90676,10 @@
         <v>30</v>
       </c>
       <c r="N1256" s="2" t="s">
-        <v>76</v>
+        <v>338</v>
       </c>
       <c r="O1256" s="2" t="s">
-        <v>113</v>
+        <v>1604</v>
       </c>
       <c r="P1256" s="2" t="s">
         <v>32</v>
@@ -90702,22 +90714,22 @@
         <v>22</v>
       </c>
       <c r="D1257" s="2" t="s">
-        <v>1603</v>
+        <v>1605</v>
       </c>
       <c r="E1257" s="2" t="s">
         <v>1552</v>
       </c>
       <c r="F1257" s="2" t="s">
-        <v>327</v>
+        <v>182</v>
       </c>
       <c r="G1257" s="1" t="s">
-        <v>1365</v>
+        <v>183</v>
       </c>
       <c r="H1257" s="1" t="s">
-        <v>1366</v>
+        <v>184</v>
       </c>
       <c r="I1257" s="1" t="s">
-        <v>1367</v>
+        <v>184</v>
       </c>
       <c r="J1257" s="2" t="s">
         <v>28</v>
@@ -90732,10 +90744,10 @@
         <v>30</v>
       </c>
       <c r="N1257" s="2" t="s">
-        <v>32</v>
+        <v>133</v>
       </c>
       <c r="O1257" s="2" t="s">
-        <v>85</v>
+        <v>259</v>
       </c>
       <c r="P1257" s="2" t="s">
         <v>32</v>
@@ -90770,22 +90782,22 @@
         <v>22</v>
       </c>
       <c r="D1258" s="2" t="s">
-        <v>1604</v>
+        <v>1606</v>
       </c>
       <c r="E1258" s="2" t="s">
         <v>1552</v>
       </c>
       <c r="F1258" s="2" t="s">
-        <v>186</v>
+        <v>312</v>
       </c>
       <c r="G1258" s="1" t="s">
-        <v>187</v>
+        <v>382</v>
       </c>
       <c r="H1258" s="1" t="s">
-        <v>188</v>
+        <v>383</v>
       </c>
       <c r="I1258" s="1" t="s">
-        <v>188</v>
+        <v>384</v>
       </c>
       <c r="J1258" s="2" t="s">
         <v>28</v>
@@ -90800,10 +90812,10 @@
         <v>30</v>
       </c>
       <c r="N1258" s="2" t="s">
-        <v>232</v>
+        <v>76</v>
       </c>
       <c r="O1258" s="2" t="s">
-        <v>219</v>
+        <v>85</v>
       </c>
       <c r="P1258" s="2" t="s">
         <v>32</v>
@@ -90844,16 +90856,16 @@
         <v>1552</v>
       </c>
       <c r="F1259" s="2" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="G1259" s="1" t="s">
-        <v>973</v>
+        <v>1365</v>
       </c>
       <c r="H1259" s="1" t="s">
-        <v>974</v>
+        <v>1366</v>
       </c>
       <c r="I1259" s="1" t="s">
-        <v>974</v>
+        <v>1367</v>
       </c>
       <c r="J1259" s="2" t="s">
         <v>28</v>
@@ -90868,10 +90880,10 @@
         <v>30</v>
       </c>
       <c r="N1259" s="2" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="O1259" s="2" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="P1259" s="2" t="s">
         <v>32</v>
@@ -90906,22 +90918,22 @@
         <v>22</v>
       </c>
       <c r="D1260" s="2" t="s">
-        <v>1605</v>
+        <v>1607</v>
       </c>
       <c r="E1260" s="2" t="s">
         <v>1552</v>
       </c>
       <c r="F1260" s="2" t="s">
-        <v>331</v>
+        <v>186</v>
       </c>
       <c r="G1260" s="1" t="s">
-        <v>461</v>
+        <v>187</v>
       </c>
       <c r="H1260" s="1" t="s">
-        <v>462</v>
+        <v>188</v>
       </c>
       <c r="I1260" s="1" t="s">
-        <v>462</v>
+        <v>188</v>
       </c>
       <c r="J1260" s="2" t="s">
         <v>28</v>
@@ -90936,10 +90948,10 @@
         <v>30</v>
       </c>
       <c r="N1260" s="2" t="s">
-        <v>32</v>
+        <v>492</v>
       </c>
       <c r="O1260" s="2" t="s">
-        <v>87</v>
+        <v>216</v>
       </c>
       <c r="P1260" s="2" t="s">
         <v>32</v>
@@ -90974,22 +90986,22 @@
         <v>22</v>
       </c>
       <c r="D1261" s="2" t="s">
-        <v>1606</v>
+        <v>1608</v>
       </c>
       <c r="E1261" s="2" t="s">
         <v>1552</v>
       </c>
       <c r="F1261" s="2" t="s">
-        <v>130</v>
+        <v>329</v>
       </c>
       <c r="G1261" s="1" t="s">
-        <v>131</v>
+        <v>973</v>
       </c>
       <c r="H1261" s="1" t="s">
-        <v>132</v>
+        <v>974</v>
       </c>
       <c r="I1261" s="1" t="s">
-        <v>132</v>
+        <v>974</v>
       </c>
       <c r="J1261" s="2" t="s">
         <v>28</v>
@@ -91004,10 +91016,10 @@
         <v>30</v>
       </c>
       <c r="N1261" s="2" t="s">
-        <v>161</v>
+        <v>48</v>
       </c>
       <c r="O1261" s="2" t="s">
-        <v>681</v>
+        <v>77</v>
       </c>
       <c r="P1261" s="2" t="s">
         <v>32</v>
@@ -91042,22 +91054,22 @@
         <v>22</v>
       </c>
       <c r="D1262" s="2" t="s">
-        <v>1607</v>
+        <v>1609</v>
       </c>
       <c r="E1262" s="2" t="s">
         <v>1552</v>
       </c>
       <c r="F1262" s="2" t="s">
-        <v>81</v>
+        <v>331</v>
       </c>
       <c r="G1262" s="1" t="s">
-        <v>82</v>
+        <v>461</v>
       </c>
       <c r="H1262" s="1" t="s">
-        <v>83</v>
+        <v>462</v>
       </c>
       <c r="I1262" s="1" t="s">
-        <v>83</v>
+        <v>462</v>
       </c>
       <c r="J1262" s="2" t="s">
         <v>28</v>
@@ -91072,10 +91084,10 @@
         <v>30</v>
       </c>
       <c r="N1262" s="2" t="s">
-        <v>1318</v>
+        <v>32</v>
       </c>
       <c r="O1262" s="2" t="s">
-        <v>459</v>
+        <v>84</v>
       </c>
       <c r="P1262" s="2" t="s">
         <v>32</v>
@@ -91110,22 +91122,22 @@
         <v>22</v>
       </c>
       <c r="D1263" s="2" t="s">
-        <v>1608</v>
+        <v>1610</v>
       </c>
       <c r="E1263" s="2" t="s">
         <v>1552</v>
       </c>
       <c r="F1263" s="2" t="s">
-        <v>157</v>
+        <v>130</v>
       </c>
       <c r="G1263" s="1" t="s">
-        <v>158</v>
+        <v>131</v>
       </c>
       <c r="H1263" s="1" t="s">
-        <v>159</v>
+        <v>132</v>
       </c>
       <c r="I1263" s="1" t="s">
-        <v>159</v>
+        <v>132</v>
       </c>
       <c r="J1263" s="2" t="s">
         <v>28</v>
@@ -91140,10 +91152,10 @@
         <v>30</v>
       </c>
       <c r="N1263" s="2" t="s">
-        <v>156</v>
+        <v>191</v>
       </c>
       <c r="O1263" s="2" t="s">
-        <v>45</v>
+        <v>640</v>
       </c>
       <c r="P1263" s="2" t="s">
         <v>32</v>
@@ -91178,22 +91190,22 @@
         <v>22</v>
       </c>
       <c r="D1264" s="2" t="s">
-        <v>1609</v>
+        <v>1611</v>
       </c>
       <c r="E1264" s="2" t="s">
         <v>1552</v>
       </c>
       <c r="F1264" s="2" t="s">
-        <v>342</v>
+        <v>81</v>
       </c>
       <c r="G1264" s="1" t="s">
-        <v>466</v>
+        <v>82</v>
       </c>
       <c r="H1264" s="1" t="s">
-        <v>467</v>
+        <v>83</v>
       </c>
       <c r="I1264" s="1" t="s">
-        <v>468</v>
+        <v>83</v>
       </c>
       <c r="J1264" s="2" t="s">
         <v>28</v>
@@ -91208,10 +91220,10 @@
         <v>30</v>
       </c>
       <c r="N1264" s="2" t="s">
-        <v>40</v>
+        <v>1549</v>
       </c>
       <c r="O1264" s="2" t="s">
-        <v>102</v>
+        <v>1053</v>
       </c>
       <c r="P1264" s="2" t="s">
         <v>32</v>
@@ -91246,22 +91258,22 @@
         <v>22</v>
       </c>
       <c r="D1265" s="2" t="s">
-        <v>1610</v>
+        <v>1612</v>
       </c>
       <c r="E1265" s="2" t="s">
         <v>1552</v>
       </c>
       <c r="F1265" s="2" t="s">
-        <v>134</v>
+        <v>157</v>
       </c>
       <c r="G1265" s="1" t="s">
-        <v>135</v>
+        <v>158</v>
       </c>
       <c r="H1265" s="1" t="s">
-        <v>136</v>
+        <v>159</v>
       </c>
       <c r="I1265" s="1" t="s">
-        <v>137</v>
+        <v>159</v>
       </c>
       <c r="J1265" s="2" t="s">
         <v>28</v>
@@ -91276,10 +91288,10 @@
         <v>30</v>
       </c>
       <c r="N1265" s="2" t="s">
-        <v>195</v>
+        <v>66</v>
       </c>
       <c r="O1265" s="2" t="s">
-        <v>94</v>
+        <v>40</v>
       </c>
       <c r="P1265" s="2" t="s">
         <v>32</v>
@@ -91291,7 +91303,7 @@
         <v>32</v>
       </c>
       <c r="S1265" s="2" t="s">
-        <v>237</v>
+        <v>32</v>
       </c>
       <c r="T1265" s="2" t="s">
         <v>32</v>
@@ -91314,22 +91326,22 @@
         <v>22</v>
       </c>
       <c r="D1266" s="2" t="s">
-        <v>1611</v>
+        <v>1613</v>
       </c>
       <c r="E1266" s="2" t="s">
         <v>1552</v>
       </c>
       <c r="F1266" s="2" t="s">
-        <v>138</v>
+        <v>342</v>
       </c>
       <c r="G1266" s="1" t="s">
-        <v>139</v>
+        <v>466</v>
       </c>
       <c r="H1266" s="1" t="s">
-        <v>140</v>
+        <v>467</v>
       </c>
       <c r="I1266" s="1" t="s">
-        <v>141</v>
+        <v>468</v>
       </c>
       <c r="J1266" s="2" t="s">
         <v>28</v>
@@ -91344,10 +91356,10 @@
         <v>30</v>
       </c>
       <c r="N1266" s="2" t="s">
-        <v>165</v>
+        <v>40</v>
       </c>
       <c r="O1266" s="2" t="s">
-        <v>110</v>
+        <v>74</v>
       </c>
       <c r="P1266" s="2" t="s">
         <v>32</v>
@@ -91382,22 +91394,22 @@
         <v>22</v>
       </c>
       <c r="D1267" s="2" t="s">
-        <v>1612</v>
+        <v>1614</v>
       </c>
       <c r="E1267" s="2" t="s">
         <v>1552</v>
       </c>
       <c r="F1267" s="2" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="G1267" s="1" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="H1267" s="1" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="I1267" s="1" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="J1267" s="2" t="s">
         <v>28</v>
@@ -91412,10 +91424,10 @@
         <v>30</v>
       </c>
       <c r="N1267" s="2" t="s">
-        <v>1613</v>
+        <v>208</v>
       </c>
       <c r="O1267" s="2" t="s">
-        <v>1614</v>
+        <v>128</v>
       </c>
       <c r="P1267" s="2" t="s">
         <v>32</v>
@@ -91427,7 +91439,7 @@
         <v>32</v>
       </c>
       <c r="S1267" s="2" t="s">
-        <v>32</v>
+        <v>243</v>
       </c>
       <c r="T1267" s="2" t="s">
         <v>32</v>
@@ -91456,16 +91468,16 @@
         <v>1552</v>
       </c>
       <c r="F1268" s="2" t="s">
-        <v>368</v>
+        <v>138</v>
       </c>
       <c r="G1268" s="1" t="s">
-        <v>1458</v>
+        <v>139</v>
       </c>
       <c r="H1268" s="1" t="s">
-        <v>1459</v>
+        <v>140</v>
       </c>
       <c r="I1268" s="1" t="s">
-        <v>1459</v>
+        <v>141</v>
       </c>
       <c r="J1268" s="2" t="s">
         <v>28</v>
@@ -91480,10 +91492,10 @@
         <v>30</v>
       </c>
       <c r="N1268" s="2" t="s">
-        <v>32</v>
+        <v>71</v>
       </c>
       <c r="O1268" s="2" t="s">
-        <v>40</v>
+        <v>293</v>
       </c>
       <c r="P1268" s="2" t="s">
         <v>32</v>
@@ -91524,16 +91536,16 @@
         <v>1552</v>
       </c>
       <c r="F1269" s="2" t="s">
-        <v>369</v>
+        <v>142</v>
       </c>
       <c r="G1269" s="1" t="s">
-        <v>1287</v>
+        <v>143</v>
       </c>
       <c r="H1269" s="1" t="s">
-        <v>1288</v>
+        <v>144</v>
       </c>
       <c r="I1269" s="1" t="s">
-        <v>1288</v>
+        <v>144</v>
       </c>
       <c r="J1269" s="2" t="s">
         <v>28</v>
@@ -91548,10 +91560,10 @@
         <v>30</v>
       </c>
       <c r="N1269" s="2" t="s">
-        <v>61</v>
+        <v>1616</v>
       </c>
       <c r="O1269" s="2" t="s">
-        <v>55</v>
+        <v>1617</v>
       </c>
       <c r="P1269" s="2" t="s">
         <v>32</v>
@@ -91586,22 +91598,22 @@
         <v>22</v>
       </c>
       <c r="D1270" s="2" t="s">
-        <v>1616</v>
+        <v>1618</v>
       </c>
       <c r="E1270" s="2" t="s">
         <v>1552</v>
       </c>
       <c r="F1270" s="2" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="G1270" s="1" t="s">
-        <v>753</v>
+        <v>1458</v>
       </c>
       <c r="H1270" s="1" t="s">
-        <v>754</v>
+        <v>1459</v>
       </c>
       <c r="I1270" s="1" t="s">
-        <v>755</v>
+        <v>1459</v>
       </c>
       <c r="J1270" s="2" t="s">
         <v>28</v>
@@ -91619,7 +91631,7 @@
         <v>32</v>
       </c>
       <c r="O1270" s="2" t="s">
-        <v>74</v>
+        <v>40</v>
       </c>
       <c r="P1270" s="2" t="s">
         <v>32</v>
@@ -91654,22 +91666,22 @@
         <v>22</v>
       </c>
       <c r="D1271" s="2" t="s">
-        <v>1617</v>
+        <v>1619</v>
       </c>
       <c r="E1271" s="2" t="s">
         <v>1552</v>
       </c>
       <c r="F1271" s="2" t="s">
-        <v>42</v>
+        <v>369</v>
       </c>
       <c r="G1271" s="1" t="s">
-        <v>43</v>
+        <v>1287</v>
       </c>
       <c r="H1271" s="1" t="s">
-        <v>44</v>
+        <v>1288</v>
       </c>
       <c r="I1271" s="1" t="s">
-        <v>44</v>
+        <v>1288</v>
       </c>
       <c r="J1271" s="2" t="s">
         <v>28</v>
@@ -91684,10 +91696,10 @@
         <v>30</v>
       </c>
       <c r="N1271" s="2" t="s">
-        <v>529</v>
+        <v>61</v>
       </c>
       <c r="O1271" s="2" t="s">
-        <v>429</v>
+        <v>55</v>
       </c>
       <c r="P1271" s="2" t="s">
         <v>32</v>
@@ -91722,22 +91734,22 @@
         <v>22</v>
       </c>
       <c r="D1272" s="2" t="s">
-        <v>1618</v>
+        <v>1620</v>
       </c>
       <c r="E1272" s="2" t="s">
         <v>1552</v>
       </c>
       <c r="F1272" s="2" t="s">
-        <v>381</v>
+        <v>371</v>
       </c>
       <c r="G1272" s="1" t="s">
-        <v>1464</v>
+        <v>753</v>
       </c>
       <c r="H1272" s="1" t="s">
-        <v>1465</v>
+        <v>754</v>
       </c>
       <c r="I1272" s="1" t="s">
-        <v>1465</v>
+        <v>755</v>
       </c>
       <c r="J1272" s="2" t="s">
         <v>28</v>
@@ -91755,7 +91767,7 @@
         <v>32</v>
       </c>
       <c r="O1272" s="2" t="s">
-        <v>40</v>
+        <v>78</v>
       </c>
       <c r="P1272" s="2" t="s">
         <v>32</v>
@@ -91790,22 +91802,22 @@
         <v>22</v>
       </c>
       <c r="D1273" s="2" t="s">
-        <v>1619</v>
+        <v>1621</v>
       </c>
       <c r="E1273" s="2" t="s">
         <v>1552</v>
       </c>
       <c r="F1273" s="2" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="G1273" s="1" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="H1273" s="1" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="I1273" s="1" t="s">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="J1273" s="2" t="s">
         <v>28</v>
@@ -91820,10 +91832,10 @@
         <v>30</v>
       </c>
       <c r="N1273" s="2" t="s">
-        <v>32</v>
+        <v>534</v>
       </c>
       <c r="O1273" s="2" t="s">
-        <v>77</v>
+        <v>42</v>
       </c>
       <c r="P1273" s="2" t="s">
         <v>32</v>
@@ -91858,22 +91870,22 @@
         <v>22</v>
       </c>
       <c r="D1274" s="2" t="s">
-        <v>1620</v>
+        <v>1622</v>
       </c>
       <c r="E1274" s="2" t="s">
         <v>1552</v>
       </c>
       <c r="F1274" s="2" t="s">
-        <v>31</v>
+        <v>381</v>
       </c>
       <c r="G1274" s="1" t="s">
-        <v>251</v>
+        <v>1464</v>
       </c>
       <c r="H1274" s="1" t="s">
-        <v>252</v>
+        <v>1465</v>
       </c>
       <c r="I1274" s="1" t="s">
-        <v>252</v>
+        <v>1465</v>
       </c>
       <c r="J1274" s="2" t="s">
         <v>28</v>
@@ -91888,13 +91900,13 @@
         <v>30</v>
       </c>
       <c r="N1274" s="2" t="s">
-        <v>1621</v>
+        <v>32</v>
       </c>
       <c r="O1274" s="2" t="s">
-        <v>232</v>
+        <v>40</v>
       </c>
       <c r="P1274" s="2" t="s">
-        <v>530</v>
+        <v>32</v>
       </c>
       <c r="Q1274" s="2" t="s">
         <v>32</v>
@@ -91926,22 +91938,22 @@
         <v>22</v>
       </c>
       <c r="D1275" s="2" t="s">
-        <v>1622</v>
+        <v>1623</v>
       </c>
       <c r="E1275" s="2" t="s">
         <v>1552</v>
       </c>
       <c r="F1275" s="2" t="s">
-        <v>253</v>
+        <v>62</v>
       </c>
       <c r="G1275" s="1" t="s">
-        <v>254</v>
+        <v>63</v>
       </c>
       <c r="H1275" s="1" t="s">
-        <v>255</v>
+        <v>64</v>
       </c>
       <c r="I1275" s="1" t="s">
-        <v>255</v>
+        <v>65</v>
       </c>
       <c r="J1275" s="2" t="s">
         <v>28</v>
@@ -91956,10 +91968,10 @@
         <v>30</v>
       </c>
       <c r="N1275" s="2" t="s">
-        <v>40</v>
+        <v>124</v>
       </c>
       <c r="O1275" s="2" t="s">
-        <v>40</v>
+        <v>193</v>
       </c>
       <c r="P1275" s="2" t="s">
         <v>32</v>
@@ -91994,22 +92006,22 @@
         <v>22</v>
       </c>
       <c r="D1276" s="2" t="s">
-        <v>1623</v>
+        <v>1624</v>
       </c>
       <c r="E1276" s="2" t="s">
         <v>1552</v>
       </c>
       <c r="F1276" s="2" t="s">
-        <v>335</v>
+        <v>31</v>
       </c>
       <c r="G1276" s="1" t="s">
-        <v>336</v>
+        <v>251</v>
       </c>
       <c r="H1276" s="1" t="s">
-        <v>337</v>
+        <v>252</v>
       </c>
       <c r="I1276" s="1" t="s">
-        <v>337</v>
+        <v>252</v>
       </c>
       <c r="J1276" s="2" t="s">
         <v>28</v>
@@ -92024,10 +92036,10 @@
         <v>30</v>
       </c>
       <c r="N1276" s="2" t="s">
-        <v>116</v>
+        <v>1625</v>
       </c>
       <c r="O1276" s="2" t="s">
-        <v>74</v>
+        <v>211</v>
       </c>
       <c r="P1276" s="2" t="s">
         <v>32</v>
@@ -92062,22 +92074,22 @@
         <v>22</v>
       </c>
       <c r="D1277" s="2" t="s">
-        <v>1624</v>
+        <v>1626</v>
       </c>
       <c r="E1277" s="2" t="s">
         <v>1552</v>
       </c>
       <c r="F1277" s="2" t="s">
-        <v>406</v>
+        <v>253</v>
       </c>
       <c r="G1277" s="1" t="s">
-        <v>940</v>
+        <v>254</v>
       </c>
       <c r="H1277" s="1" t="s">
-        <v>941</v>
+        <v>255</v>
       </c>
       <c r="I1277" s="1" t="s">
-        <v>942</v>
+        <v>255</v>
       </c>
       <c r="J1277" s="2" t="s">
         <v>28</v>
@@ -92095,7 +92107,7 @@
         <v>40</v>
       </c>
       <c r="O1277" s="2" t="s">
-        <v>87</v>
+        <v>40</v>
       </c>
       <c r="P1277" s="2" t="s">
         <v>32</v>
@@ -92116,6 +92128,142 @@
         <v>33</v>
       </c>
       <c r="V1277" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="1278">
+      <c r="A1278" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1278" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1278" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1278" s="2" t="s">
+        <v>1627</v>
+      </c>
+      <c r="E1278" s="2" t="s">
+        <v>1552</v>
+      </c>
+      <c r="F1278" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="G1278" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="H1278" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="I1278" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="J1278" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1278" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1278" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1278" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N1278" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="O1278" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="P1278" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q1278" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R1278" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S1278" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T1278" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U1278" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="V1278" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="1279">
+      <c r="A1279" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1279" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1279" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1279" s="2" t="s">
+        <v>1628</v>
+      </c>
+      <c r="E1279" s="2" t="s">
+        <v>1552</v>
+      </c>
+      <c r="F1279" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="G1279" s="1" t="s">
+        <v>940</v>
+      </c>
+      <c r="H1279" s="1" t="s">
+        <v>941</v>
+      </c>
+      <c r="I1279" s="1" t="s">
+        <v>942</v>
+      </c>
+      <c r="J1279" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1279" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1279" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1279" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N1279" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="O1279" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="P1279" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q1279" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R1279" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S1279" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T1279" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U1279" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="V1279" s="2" t="s">
         <v>32</v>
       </c>
     </row>
